--- a/Lab1/Lab1.3/Lab1_3_Requirements_Source_Traceability_Matrix.xlsx
+++ b/Lab1/Lab1.3/Lab1_3_Requirements_Source_Traceability_Matrix.xlsx
@@ -91,7 +91,7 @@
     <t>Generate Report</t>
   </si>
   <si>
-    <t>Import</t>
+    <t>Manange configuration</t>
   </si>
   <si>
     <t>Login</t>
